--- a/biology/Zoologie/Akera/Akera.xlsx
+++ b/biology/Zoologie/Akera/Akera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akeroidea, Akeridae
 Akera est un genre de mollusques gastéropodes opisthobranches de l'ordre des Anaspidea (« lièvres de mer »). C'est l'unique représentant de la famille des Akeridae et de la super-famille des Akeroidea. 
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (17 octobre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (17 octobre 2020) :
 Akera bayeri Ev. Marcus &amp; Er. Marcus, 1967
 Akera bullata O. F. Müller, 1776
 Akera julieae Valdés &amp; Barwick, 2005
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Müller, 1776 : « Zoologiae Danicae prodromus: seu Animalium Daniae et Norvegiae indigenarum… » (lire en ligne).</t>
         </is>
